--- a/biology/Botanique/Dupontia_psilosantha/Dupontia_psilosantha.xlsx
+++ b/biology/Botanique/Dupontia_psilosantha/Dupontia_psilosantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dupontia psilosantha est une espèce de graminées originaire de l'Arctique que l'on trouve notamment à l'île de Spitzberg, en Laponie, au nord de l'Oural et de la Sibérie. Son épithète vient du grec psilo « nu » et anthos « fleur ».
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce pousse sur les berges marécageuses, au bord des rivières et des lacs de la toundra, et au bord de l'Océan Arctique.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dupontia psilosantha se rencontre en Sibérie dans l'oblast de Tioumen, le nord du kraï de Krasnoïarsk, en Iakoutie, en Laponie, au nord et à l'ouest de la péninsule de Taïmyr[2] et à l'extrême nord de l'Europe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dupontia psilosantha se rencontre en Sibérie dans l'oblast de Tioumen, le nord du kraï de Krasnoïarsk, en Iakoutie, en Laponie, au nord et à l'ouest de la péninsule de Taïmyr et à l'extrême nord de l'Europe.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Poa psilosantha Rupr.
-Dupontia fisheri ssp. psilosantha (Rupr.) Hult.[4]
-Graphephorum psilosanthum (Rupr.) E.Fourn.[5]</t>
+Dupontia fisheri ssp. psilosantha (Rupr.) Hult.
+Graphephorum psilosanthum (Rupr.) E.Fourn.</t>
         </is>
       </c>
     </row>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dupontia psilosantha var. flavescens (Hook. &amp; Arn.) Vasey
 Dupontia psilosantha var. psilosantha Rupr.</t>
